--- a/Caso de uso/Descrição Textual Casos de uso/PlanilhaCasosDeUso.xlsx
+++ b/Caso de uso/Descrição Textual Casos de uso/PlanilhaCasosDeUso.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcs_k\Desktop\PIM 2019\Caso de uso\Descrição Textual Casos de uso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36448A23-415A-485E-B7D4-369708C21BF1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C83022-0DE2-4CDD-94C4-C7B0B7A18DD6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F5E5ED18-B7E9-4EF9-A9EE-35F1C7981872}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="9" xr2:uid="{F5E5ED18-B7E9-4EF9-A9EE-35F1C7981872}"/>
   </bookViews>
   <sheets>
     <sheet name="FazerLogin" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,12 @@
     <sheet name="ConsultarEstoque" sheetId="4" r:id="rId4"/>
     <sheet name="AgendarManutencao" sheetId="5" r:id="rId5"/>
     <sheet name="ConsultarManutencao" sheetId="6" r:id="rId6"/>
-    <sheet name="AlugarCarro" sheetId="7" r:id="rId7"/>
-    <sheet name="DevolverCarro" sheetId="8" r:id="rId8"/>
+    <sheet name="FiltrarCarroParaAluguel" sheetId="7" r:id="rId7"/>
+    <sheet name="VisualizarInfoAluguelCarro" sheetId="10" r:id="rId8"/>
+    <sheet name="FinalizarPedidoAluguel" sheetId="11" r:id="rId9"/>
+    <sheet name="ConsultarCarrosParaSeremDevolvi" sheetId="8" r:id="rId10"/>
+    <sheet name="ConfirmaDevolução" sheetId="12" r:id="rId11"/>
+    <sheet name="GerenciarManutencoes" sheetId="9" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="45">
   <si>
     <t>Caso de Uso</t>
   </si>
@@ -123,24 +127,98 @@
     <t>Manutencao Agendada</t>
   </si>
   <si>
-    <t>1. Usuário seleciona a opção "Manutenção".
-2. Usuário seleciona a opção "Consultar Manutenções".
-  2.1 Usuário seleciona o filtro entre as opções "Manutenções Agendadas", "Manutenções Concluídas" e "Manutenções Atrasadas".
-  2.1.1 O sistema exibe lista de manutenções de acordo com o filtro selecionado</t>
-  </si>
-  <si>
     <t>2.2 Se o Usuário não estiver logado no sistema.
   2.2.1 &lt;&lt;include&gt;&gt; Fazer login.</t>
   </si>
   <si>
-    <t>Alugar Carro</t>
-  </si>
-  <si>
     <t>Carro Alugado</t>
   </si>
   <si>
+    <t>Gerenciar Manutencoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Usuário seleciona a opção "Mecanico".
+2. Usuário visualiza todas as manutenções por Modelo, Marca, Ano de Fabricação e Última Manutenção feita no Carro.
+  2.1 Usuário pode filtrar através da barra de pesquisa o nome do modelo.
+  2.1.1 Usuário pode filtrar através da seleção de opções de Marca.
+3. Usuário pode editar o campo Data da Última Manutenção.
+  3.1 Usuário pode adicionar mais uma Manutenção realizada.
+</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>1. Usuário seleciona a opção "Veículos".
+2. Usuário seleciona a opção "Manutenções".
+  2.1 Usuário digita no campo busca, qual o modelo do carro, ou marca que deseja filtrar.
+  2.2 Usuário seleciona ícone com a foto do carro
+  2.2.1 Usuário visualiza informações de Manutenções realizadas naquele carro selecionado.</t>
+  </si>
+  <si>
+    <t>Filtrar Carro para Aluguel</t>
+  </si>
+  <si>
     <t xml:space="preserve">
-1. O usuário seleciona qual carro irá alugar.</t>
+1. Usuário digita nome do Modelo que deseja alugar.
+  1.1 Usuário seleciona nome da Marca do carro que deseja alugar.
+2. Usuário seleciona o carro que deseja alugar clicando no ícone com a imagem do mesmo.
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 Usuário visualiza mais informações de custo de aluguel diário médio do modelo, valor do seguro para este modelo e informações sobre o veículo.
+  1.1 Usuário clica na opção Alugar para ir até a tela de confirmação do aluguel.</t>
+  </si>
+  <si>
+    <t>Finalizar Pedido de Aluguel</t>
+  </si>
+  <si>
+    <t>Carro selecionado</t>
+  </si>
+  <si>
+    <t>Informações do carro enviadas para confirmação do pedido</t>
+  </si>
+  <si>
+    <t>Carro Selecionado</t>
+  </si>
+  <si>
+    <t>Informações do carro para finalizar pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 Usuário seleciona quantidade de dias que deseja alugar o carro.
+ 2 Usuário visualizar os termos de uso e responsabilidade.
+  2.1 Usuário seleciona o aceite dos termos para finalizar o pedido.
+3 Usuário clica no botão Finalizar Pedido e é encaminhado a confirmação para aluguel.
+ </t>
+  </si>
+  <si>
+    <t>Consultar histórico de devolução</t>
+  </si>
+  <si>
+    <t>1. Usuário seleciona a opção "Devolução".
+2. Usuário digita qual o modelo que deseja filtrar para consultar as devoluções .
+  2.1 Usuário seleciona o Status para filtrar o(s) veículo(s).
+  2.1.1 O sistema exibe lista de histórico do aluguel do(s) determinado(s) carro(s) de acordo com o filtro selecionado anteriormente pelo usuário.
+3. Caso o usuário deseja realizar devolução, clica no botão de confirmação na coluna de "Devolução e será encaminhado para a página para confirmação da devolução do veículo.</t>
+  </si>
+  <si>
+    <t>Confirmar Devolução</t>
+  </si>
+  <si>
+    <t>1. Usuário digita data para agendar devolução.
+2. Usuário digita KM atual do veículo a ser entregue.
+3. Usuário marca as opções "Sim" ou "Não" para confirmar se o tanque está cheio.
+4. Usuário clica no botão "Upload" para carregar uma foto atual do painel, confirmando KM do veículo.
+5. Usuário clica no botão "Entregar" para agendar entregar na data selecionada.</t>
+  </si>
+  <si>
+    <t>Alteração Status para "Devolução Agendada"</t>
+  </si>
+  <si>
+    <t>Carro selecionado para devolução</t>
+  </si>
+  <si>
+    <t>Carro será selecionado para Confirmar Devolução</t>
   </si>
 </sst>
 </file>
@@ -228,13 +306,13 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -557,7 +635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BA51E3-284C-4F69-9F71-AB14B59C763C}">
   <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -572,7 +650,7 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -580,7 +658,7 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -588,7 +666,7 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -596,15 +674,15 @@
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="2:3" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
@@ -613,10 +691,10 @@
       <c r="C7" s="6"/>
     </row>
     <row r="8" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="2:3" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
@@ -630,6 +708,210 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB30EFF5-550E-47CC-98D5-215D0FDD4039}">
+  <dimension ref="B1:C7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="2:3" ht="164.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4795A98-435B-4673-9669-9F1CE2730AAA}">
+  <dimension ref="B1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="2:3" ht="164.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062CED44-879B-4030-A071-10D3520D4D25}">
+  <dimension ref="B1:C7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="2:3" ht="158.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -654,7 +936,7 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -662,7 +944,7 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -670,7 +952,7 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -678,15 +960,15 @@
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="2:3" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
@@ -695,14 +977,14 @@
       <c r="C7" s="6"/>
     </row>
     <row r="8" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="2:3" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="6"/>
     </row>
@@ -736,7 +1018,7 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -744,7 +1026,7 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -752,7 +1034,7 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -760,15 +1042,15 @@
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="2:3" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
@@ -804,7 +1086,7 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -812,7 +1094,7 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -820,7 +1102,7 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -828,15 +1110,15 @@
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="2:3" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
@@ -845,14 +1127,14 @@
       <c r="C7" s="6"/>
     </row>
     <row r="8" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="2:3" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="6"/>
     </row>
@@ -886,7 +1168,7 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -894,7 +1176,7 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -902,7 +1184,7 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -910,15 +1192,15 @@
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="2:3" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
@@ -940,7 +1222,7 @@
   <dimension ref="B1:C7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,7 +1236,7 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -962,15 +1244,15 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -978,19 +1260,19 @@
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="2:3" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="2:3" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C7" s="6"/>
     </row>
@@ -1008,7 +1290,7 @@
   <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,15 +1304,15 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>25</v>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1038,7 +1320,7 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1046,31 +1328,31 @@
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>26</v>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="2:3" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="2:3" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C7" s="6"/>
     </row>
     <row r="8" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="2:3" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="6"/>
     </row>
@@ -1086,16 +1368,98 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB30EFF5-550E-47CC-98D5-215D0FDD4039}">
-  <dimension ref="B1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E15902-FCD3-4C50-9227-09BA3D1F7FC7}">
+  <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="2:3" ht="190.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="2:3" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2714B39B-D61E-4FEF-B2B4-01E1112F9524}">
+  <dimension ref="B1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1104,15 +1468,15 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>21</v>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1120,34 +1484,48 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="2:3" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="2:3" ht="190.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="2:3" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C9" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
